--- a/táblázat a lottó számokhoz.xlsx
+++ b/táblázat a lottó számokhoz.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somlyaitamas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8924B7-3E14-4791-8AF4-14C8E091BE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Egymást követő számok sorozata: </t>
   </si>
@@ -39,12 +40,42 @@
   </si>
   <si>
     <t>3,53,54,55,57</t>
+  </si>
+  <si>
+    <t>16, 26, 28, 46, 49</t>
+  </si>
+  <si>
+    <t>12, 26, 36, 46, 49</t>
+  </si>
+  <si>
+    <t>3:218 db</t>
+  </si>
+  <si>
+    <t>1:209 db</t>
+  </si>
+  <si>
+    <t>19:208 db</t>
+  </si>
+  <si>
+    <t>2,3,6,8,30:49</t>
+  </si>
+  <si>
+    <t>2,6,9,23,26:66</t>
+  </si>
+  <si>
+    <t>1,12,13,15,26:67</t>
+  </si>
+  <si>
+    <t>Leggyakoribb számok:</t>
+  </si>
+  <si>
+    <t>Legkisebb összegűek:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;Ft&quot;;[Red]\-#,##0\ &quot;Ft&quot;"/>
   </numFmts>
@@ -377,17 +408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -397,14 +430,26 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -412,10 +457,25 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
